--- a/src/assets/images/file-name.xlsx
+++ b/src/assets/images/file-name.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trinh Hung\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trinh Hung\Documents\CRUD-API\src\assets\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3758DFAB-4458-46C3-A975-D49B95C37677}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3775D6D-A778-45C4-B750-8929E36B3FBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{135F1D16-627B-4BA7-AB42-36215649BA9B}"/>
   </bookViews>
@@ -475,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5555B4-6D85-4EA0-872A-17E0C8AAC91B}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -490,118 +490,82 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -624,6 +588,66 @@
     <row r="20" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
